--- a/December2020/USRI.xlsx
+++ b/December2020/USRI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="4" activeTab="6"/>
+    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="MEDIA MOBILE GALL-(660315675)" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="DIVYANKA MOBILE-(660315660)" sheetId="5" r:id="rId5"/>
     <sheet name="KRISH RAJ MOBILE-(661032970)" sheetId="6" r:id="rId6"/>
     <sheet name="PAWAN PAY PHONE-(660297502)" sheetId="8" r:id="rId7"/>
+    <sheet name="PRITI MOBILE CENTRE-(660297509)" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="23">
   <si>
     <t>MEDIA MOBILE GALLERY-(660315675)</t>
   </si>
@@ -34,12 +35,12 @@
     <t>Receive Amount</t>
   </si>
   <si>
+    <t>Transaction Type</t>
+  </si>
+  <si>
     <t>Dues Amount</t>
   </si>
   <si>
-    <t>Transaction Type</t>
-  </si>
-  <si>
     <t>Remarks</t>
   </si>
   <si>
@@ -86,6 +87,9 @@
   </si>
   <si>
     <t>PAWAN PAY PHONE-(660297502)</t>
+  </si>
+  <si>
+    <t>PRITI MOBILE CENTRE-(660297509)</t>
   </si>
 </sst>
 </file>
@@ -93,11 +97,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -115,36 +119,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,10 +134,26 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -184,15 +175,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,7 +196,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -215,15 +211,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,16 +220,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -257,6 +239,28 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -285,187 +289,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,35 +483,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,6 +534,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -581,15 +585,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -599,130 +603,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -742,7 +746,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -754,7 +758,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -763,8 +767,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1091,15 +1095,16 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="17" style="6" customWidth="1"/>
     <col min="2" max="2" width="18" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.8571428571429" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.8571428571429" style="6" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="6" customWidth="1"/>
+    <col min="5" max="5" width="16.8571428571429" style="6" customWidth="1"/>
     <col min="6" max="6" width="14" style="6" customWidth="1"/>
     <col min="7" max="16382" width="9.14285714285714" style="6"/>
     <col min="16383" max="16384" width="9.14285714285714" style="13"/>
@@ -1138,11 +1143,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:4">
+    <row r="3" s="2" customFormat="1" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1153,11 +1158,11 @@
       <c r="B4" s="1">
         <v>2080</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
         <v>2000</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
@@ -1167,11 +1172,11 @@
       <c r="B5" s="1">
         <v>3120</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
         <v>5000</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:5">
@@ -1181,11 +1186,11 @@
       <c r="C6" s="1">
         <v>5000</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1">
         <v>0</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" s="13" customFormat="1"/>
@@ -1256,7 +1261,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="6"/>
@@ -1264,17 +1269,18 @@
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.8571428571429" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.14285714285714" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
+    <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="4" t="s">
@@ -1299,11 +1305,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" s="10" customFormat="1" spans="1:4">
+    <row r="3" s="10" customFormat="1" spans="1:5">
       <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="10">
+      <c r="E3" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1314,11 +1320,11 @@
       <c r="B4" s="1">
         <v>1040</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
         <v>1000</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
@@ -1328,11 +1334,11 @@
       <c r="B5" s="1">
         <v>1040</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1">
         <v>2000</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:5">
@@ -1342,11 +1348,11 @@
       <c r="C6" s="1">
         <v>1000</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1">
         <v>1000</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:5">
@@ -1356,11 +1362,11 @@
       <c r="B7" s="1">
         <v>2080</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1">
         <v>3000</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1370,15 +1376,16 @@
       <c r="C8" s="1">
         <v>3000</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:C3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1389,19 +1396,19 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.8571428571429" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.14285714285714" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.14285714285714" style="1"/>
   </cols>
@@ -1436,11 +1443,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" s="10" customFormat="1" spans="1:4">
+    <row r="3" s="10" customFormat="1" spans="1:5">
       <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="10">
+      <c r="E3" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1451,11 +1458,11 @@
       <c r="B4" s="1">
         <v>2080</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
         <v>2000</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
@@ -1465,11 +1472,11 @@
       <c r="C5" s="1">
         <v>2000</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1">
         <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:5">
@@ -1479,11 +1486,11 @@
       <c r="B6" s="1">
         <v>1040</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1">
         <v>1000</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1493,11 +1500,11 @@
       <c r="B7" s="1">
         <v>3120</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1">
         <v>4000</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1507,11 +1514,25 @@
       <c r="C8" s="1">
         <v>4000</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5">
+        <v>44174</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3120</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3000</v>
       </c>
     </row>
   </sheetData>
@@ -1530,7 +1551,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C1"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -1538,8 +1559,8 @@
     <col min="1" max="1" width="32.1428571428571" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.8571428571429" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.14285714285714" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.14285714285714" style="1"/>
   </cols>
@@ -1574,11 +1595,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" s="10" customFormat="1" spans="1:4">
+    <row r="3" s="10" customFormat="1" spans="1:5">
       <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="10">
+      <c r="E3" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1589,11 +1610,11 @@
       <c r="B4" s="1">
         <v>2080</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
         <v>2000</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
@@ -1603,11 +1624,11 @@
       <c r="C5" s="1">
         <v>2000</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1">
         <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1626,7 +1647,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1634,8 +1655,8 @@
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.8571428571429" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.14285714285714" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.14285714285714" style="1"/>
   </cols>
@@ -1670,11 +1691,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:4">
+    <row r="3" s="2" customFormat="1" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1685,11 +1706,11 @@
       <c r="B4" s="1">
         <v>2080</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
         <v>2000</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
@@ -1699,11 +1720,11 @@
       <c r="B5" s="1">
         <v>2080</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
         <v>4000</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:5">
@@ -1713,11 +1734,11 @@
       <c r="C6" s="1">
         <v>4000</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1">
         <v>0</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1727,11 +1748,11 @@
       <c r="B7" s="1">
         <v>3120</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1">
         <v>3000</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1741,11 +1762,11 @@
       <c r="C8" s="1">
         <v>3000</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1">
         <v>0</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1755,11 +1776,11 @@
       <c r="B9" s="1">
         <v>3120</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1">
         <v>3000</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1778,7 +1799,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="$A6:$XFD6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1786,8 +1807,8 @@
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.8571428571429" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.14285714285714" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.14285714285714" style="1"/>
   </cols>
@@ -1819,11 +1840,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:4">
+    <row r="3" s="2" customFormat="1" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1834,11 +1855,11 @@
       <c r="B4" s="6">
         <v>1040</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6">
         <v>1000</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1848,15 +1869,26 @@
       <c r="C5" s="1">
         <v>1000</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="9"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="9">
+        <v>44175</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2080</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1874,7 +1906,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="6"/>
@@ -1882,8 +1914,8 @@
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.8571428571429" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.14285714285714" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.14285714285714" style="1"/>
   </cols>
@@ -1918,11 +1950,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:4">
+    <row r="3" s="2" customFormat="1" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1933,11 +1965,11 @@
       <c r="B4" s="1">
         <v>2080</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
         <v>2000</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
@@ -1947,11 +1979,11 @@
       <c r="C5" s="1">
         <v>2000</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1">
         <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:5">
@@ -1961,11 +1993,11 @@
       <c r="B6" s="1">
         <v>2080</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1">
         <v>2000</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1975,11 +2007,11 @@
       <c r="C7" s="1">
         <v>2000</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1">
         <v>0</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1989,12 +2021,128 @@
       <c r="B8" s="1">
         <v>3120</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1">
         <v>3000</v>
       </c>
-      <c r="E8" s="1" t="s">
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:C3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="17" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.8571428571429" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.14285714285714" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:5">
+      <c r="A4" s="5">
+        <v>44174</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1040</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="E4" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:5">
+      <c r="A5" s="5">
+        <v>44174</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1040</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:5">
+      <c r="A6" s="5">
+        <v>44175</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3120</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:1">
+      <c r="A7" s="5"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:1">
+      <c r="A8" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
